--- a/public/templates/soal_pai.xlsx
+++ b/public/templates/soal_pai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\cbt-darmah\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD506CD7-43F9-46F3-AD8C-93F1F98F90DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E26ABB-42E1-44F7-9ADF-A937115495D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{EE1D83E6-F875-4913-9C16-9993727F85BE}"/>
   </bookViews>
@@ -423,9 +423,6 @@
     <t xml:space="preserve">13-14 M.              </t>
   </si>
   <si>
-    <t>Hadis tersebut diatas menunjukkan dalil tentang...</t>
-  </si>
-  <si>
     <t>aqiqah</t>
   </si>
   <si>
@@ -556,12 +553,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>#gambar_1_pai#</t>
-  </si>
-  <si>
-    <t>#gambar_2_pai#</t>
   </si>
   <si>
     <t>Al-Zumar: 39</t>
@@ -628,6 +619,17 @@
   <si>
     <t>#gambar_5_pai#
 Hadis tersebut diatas menunjukkan dalil tentang....</t>
+  </si>
+  <si>
+    <t>#gambar_1_pai#
+Ayat di atas yang menunjukkan Q.S. al-Najm : 39 ditunjukkan oleh nomor…</t>
+  </si>
+  <si>
+    <t>#gambar_2_pai#
+Ayat al-Qur'an di atas terdapat dalam surat…</t>
+  </si>
+  <si>
+    <t>Diantara hikmah melaksanakan aqiqah dan kurban adalah ....</t>
   </si>
 </sst>
 </file>
@@ -688,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -703,6 +705,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,8 +1023,8 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,8 +1056,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>177</v>
+      <c r="B2" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1069,30 +1072,30 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" t="s">
         <v>178</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>179</v>
       </c>
-      <c r="D3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" t="s">
-        <v>182</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1100,22 +1103,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1123,22 +1126,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1161,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1184,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1192,22 +1195,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
         <v>183</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>184</v>
       </c>
-      <c r="D8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" t="s">
-        <v>187</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1230,7 +1233,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1253,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1261,22 +1264,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.3">
@@ -1284,22 +1287,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1307,22 +1310,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1345,7 +1348,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
@@ -1353,22 +1356,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1391,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1414,7 +1417,7 @@
         <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1437,7 +1440,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1445,22 +1448,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1483,7 +1486,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1506,7 +1509,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
@@ -1514,22 +1517,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1552,7 +1555,7 @@
         <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1575,7 +1578,7 @@
         <v>62</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1598,7 +1601,7 @@
         <v>64</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
@@ -1606,22 +1609,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1644,7 +1647,7 @@
         <v>69</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1667,7 +1670,7 @@
         <v>74</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1690,7 +1693,7 @@
         <v>82</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1713,7 +1716,7 @@
         <v>84</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1736,7 +1739,7 @@
         <v>89</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1759,7 +1762,7 @@
         <v>94</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1767,22 +1770,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1805,7 +1808,7 @@
         <v>102</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
@@ -1813,22 +1816,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1836,7 +1839,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>106</v>
@@ -1851,7 +1854,7 @@
         <v>103</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1874,7 +1877,7 @@
         <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1897,7 +1900,7 @@
         <v>113</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1920,7 +1923,7 @@
         <v>120</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1943,7 +1946,7 @@
         <v>123</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1966,7 +1969,7 @@
         <v>128</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
